--- a/data/xlsx/AI.xlsx
+++ b/data/xlsx/AI.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G710"/>
+  <dimension ref="A1:G741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -12961,7 +12961,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>AI_AT_Versus</t>
+          <t>AI_AT_EngageBless</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -12988,7 +12988,7 @@
         <v>3</v>
       </c>
       <c r="D517" t="n">
-        <v>-11</v>
+        <v>41</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -13013,16 +13013,16 @@
         <v>3</v>
       </c>
       <c r="D518" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G518" t="n">
@@ -13038,7 +13038,7 @@
         <v>3</v>
       </c>
       <c r="D519" t="n">
-        <v>-2</v>
+        <v>13</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -13063,7 +13063,7 @@
         <v>3</v>
       </c>
       <c r="D520" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>3</v>
       </c>
       <c r="D521" t="n">
-        <v>-3</v>
+        <v>71</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -13107,17 +13107,17 @@
     <row r="522">
       <c r="A522" t="inlineStr"/>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C522" t="n">
         <v>3</v>
       </c>
       <c r="D522" t="n">
-        <v>-5</v>
+        <v>74</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -13135,14 +13135,14 @@
         <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D523" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -13155,28 +13155,24 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr"/>
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>AI_AT_EngageBlessPerson</t>
+        </is>
+      </c>
       <c r="B524" t="n">
         <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D524" t="n">
-        <v>-6</v>
-      </c>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
       <c r="G524" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -13188,7 +13184,7 @@
         <v>3</v>
       </c>
       <c r="D525" t="n">
-        <v>-12</v>
+        <v>41</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -13213,11 +13209,11 @@
         <v>3</v>
       </c>
       <c r="D526" t="n">
-        <v>-10</v>
+        <v>55</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -13238,7 +13234,7 @@
         <v>3</v>
       </c>
       <c r="D527" t="n">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -13263,7 +13259,7 @@
         <v>3</v>
       </c>
       <c r="D528" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -13288,7 +13284,7 @@
         <v>3</v>
       </c>
       <c r="D529" t="n">
-        <v>-8</v>
+        <v>71</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -13307,13 +13303,13 @@
     <row r="530">
       <c r="A530" t="inlineStr"/>
       <c r="B530" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C530" t="n">
         <v>3</v>
       </c>
       <c r="D530" t="n">
-        <v>-9</v>
+        <v>74</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -13335,10 +13331,10 @@
         <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D531" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -13355,7 +13351,11 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="inlineStr"/>
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>AI_AT_Breath</t>
+        </is>
+      </c>
       <c r="B532" t="n">
         <v>0</v>
       </c>
@@ -13365,39 +13365,35 @@
       <c r="D532" t="n">
         <v>0</v>
       </c>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E532" t="inlineStr"/>
+      <c r="F532" t="inlineStr"/>
       <c r="G532" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>AI_MV_Null</t>
-        </is>
-      </c>
+      <c r="A533" t="inlineStr"/>
       <c r="B533" t="n">
         <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D533" t="n">
-        <v>0</v>
-      </c>
-      <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G533" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="534">
@@ -13409,7 +13405,7 @@
         <v>3</v>
       </c>
       <c r="D534" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -13431,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D535" t="n">
         <v>0</v>
@@ -13451,40 +13447,44 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>AI_MV_NearestEnemy</t>
-        </is>
-      </c>
+      <c r="A536" t="inlineStr"/>
       <c r="B536" t="n">
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
-      </c>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr"/>
+        <v>71</v>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G536" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr"/>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C537" t="n">
         <v>3</v>
       </c>
       <c r="D537" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
@@ -13502,10 +13502,10 @@
         <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D538" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -13522,7 +13522,11 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="inlineStr"/>
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>AI_AT_EngageClassPresident</t>
+        </is>
+      </c>
       <c r="B539" t="n">
         <v>0</v>
       </c>
@@ -13532,39 +13536,35 @@
       <c r="D539" t="n">
         <v>0</v>
       </c>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
       <c r="G539" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>AI_MV_NearestEnemySide</t>
-        </is>
-      </c>
+      <c r="A540" t="inlineStr"/>
       <c r="B540" t="n">
         <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
-      </c>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G540" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="541">
@@ -13576,16 +13576,16 @@
         <v>3</v>
       </c>
       <c r="D541" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G541" t="n">
@@ -13601,7 +13601,7 @@
         <v>3</v>
       </c>
       <c r="D542" t="n">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -13623,10 +13623,10 @@
         <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -13643,45 +13643,49 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>AI_MV_NearestEnemyExcludePerson</t>
-        </is>
-      </c>
+      <c r="A544" t="inlineStr"/>
       <c r="B544" t="n">
         <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D544" t="n">
-        <v>0</v>
-      </c>
-      <c r="E544" t="inlineStr"/>
-      <c r="F544" t="inlineStr"/>
+        <v>71</v>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G544" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr"/>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C545" t="n">
         <v>3</v>
       </c>
       <c r="D545" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G545" t="n">
@@ -13694,10 +13698,10 @@
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D546" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -13714,7 +13718,11 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="inlineStr"/>
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>AI_AT_Versus</t>
+        </is>
+      </c>
       <c r="B547" t="n">
         <v>0</v>
       </c>
@@ -13724,39 +13732,35 @@
       <c r="D547" t="n">
         <v>0</v>
       </c>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F547" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" t="inlineStr"/>
       <c r="G547" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>AI_MV_NearestEnemyExcludePerson2</t>
-        </is>
-      </c>
+      <c r="A548" t="inlineStr"/>
       <c r="B548" t="n">
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D548" t="n">
-        <v>0</v>
-      </c>
-      <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr"/>
+        <v>-11</v>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G548" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="549">
@@ -13768,16 +13772,16 @@
         <v>3</v>
       </c>
       <c r="D549" t="n">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G549" t="n">
@@ -13793,7 +13797,7 @@
         <v>3</v>
       </c>
       <c r="D550" t="n">
-        <v>81</v>
+        <v>-2</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -13815,10 +13819,10 @@
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D551" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -13835,24 +13839,28 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>AI_MV_WeakEnemy</t>
-        </is>
-      </c>
+      <c r="A552" t="inlineStr"/>
       <c r="B552" t="n">
         <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D552" t="n">
-        <v>0</v>
-      </c>
-      <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr"/>
+        <v>-3</v>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G552" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="553">
@@ -13864,11 +13872,11 @@
         <v>3</v>
       </c>
       <c r="D553" t="n">
-        <v>86</v>
+        <v>-5</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -13889,11 +13897,11 @@
         <v>3</v>
       </c>
       <c r="D554" t="n">
-        <v>82</v>
+        <v>-5</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -13914,7 +13922,7 @@
         <v>3</v>
       </c>
       <c r="D555" t="n">
-        <v>81</v>
+        <v>-6</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -13936,10 +13944,10 @@
         <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D556" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -13956,24 +13964,28 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>AI_MV_WeakEnemySide</t>
-        </is>
-      </c>
+      <c r="A557" t="inlineStr"/>
       <c r="B557" t="n">
         <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D557" t="n">
-        <v>0</v>
-      </c>
-      <c r="E557" t="inlineStr"/>
-      <c r="F557" t="inlineStr"/>
+        <v>-10</v>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G557" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="558">
@@ -13985,11 +13997,11 @@
         <v>3</v>
       </c>
       <c r="D558" t="n">
-        <v>87</v>
+        <v>-4</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -14010,11 +14022,11 @@
         <v>3</v>
       </c>
       <c r="D559" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -14035,7 +14047,7 @@
         <v>3</v>
       </c>
       <c r="D560" t="n">
-        <v>81</v>
+        <v>-8</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -14057,10 +14069,10 @@
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D561" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -14077,24 +14089,28 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>AI_MV_AttackRange</t>
-        </is>
-      </c>
+      <c r="A562" t="inlineStr"/>
       <c r="B562" t="n">
         <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D562" t="n">
-        <v>0</v>
-      </c>
-      <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr"/>
+        <v>-7</v>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G562" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="563">
@@ -14103,14 +14119,14 @@
         <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D563" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -14123,28 +14139,24 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr"/>
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>AI_MV_Null</t>
+        </is>
+      </c>
       <c r="B564" t="n">
         <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D564" t="n">
-        <v>81</v>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F564" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" t="inlineStr"/>
       <c r="G564" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -14153,10 +14165,10 @@
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D565" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -14173,11 +14185,7 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>AI_MV_AttackRangeSide</t>
-        </is>
-      </c>
+      <c r="A566" t="inlineStr"/>
       <c r="B566" t="n">
         <v>0</v>
       </c>
@@ -14187,35 +14195,39 @@
       <c r="D566" t="n">
         <v>0</v>
       </c>
-      <c r="E566" t="inlineStr"/>
-      <c r="F566" t="inlineStr"/>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G566" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr"/>
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>AI_MV_NearestEnemy</t>
+        </is>
+      </c>
       <c r="B567" t="n">
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D567" t="n">
-        <v>83</v>
-      </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>V_0</t>
-        </is>
-      </c>
-      <c r="F567" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr"/>
       <c r="G567" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -14227,11 +14239,11 @@
         <v>3</v>
       </c>
       <c r="D568" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -14249,10 +14261,10 @@
         <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D569" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -14269,11 +14281,7 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>AI_MV_WeakRange</t>
-        </is>
-      </c>
+      <c r="A570" t="inlineStr"/>
       <c r="B570" t="n">
         <v>0</v>
       </c>
@@ -14283,35 +14291,39 @@
       <c r="D570" t="n">
         <v>0</v>
       </c>
-      <c r="E570" t="inlineStr"/>
-      <c r="F570" t="inlineStr"/>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G570" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr"/>
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>AI_MV_NearestEnemySide</t>
+        </is>
+      </c>
       <c r="B571" t="n">
         <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D571" t="n">
-        <v>86</v>
-      </c>
-      <c r="E571" t="inlineStr">
-        <is>
-          <t>V_0</t>
-        </is>
-      </c>
-      <c r="F571" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E571" t="inlineStr"/>
+      <c r="F571" t="inlineStr"/>
       <c r="G571" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -14323,11 +14335,11 @@
         <v>3</v>
       </c>
       <c r="D572" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -14345,10 +14357,10 @@
         <v>0</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D573" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -14365,11 +14377,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>AI_MV_WeakRangeSide</t>
-        </is>
-      </c>
+      <c r="A574" t="inlineStr"/>
       <c r="B574" t="n">
         <v>0</v>
       </c>
@@ -14379,35 +14387,39 @@
       <c r="D574" t="n">
         <v>0</v>
       </c>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G574" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr"/>
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>AI_MV_NearestEnemyExcludePerson</t>
+        </is>
+      </c>
       <c r="B575" t="n">
         <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D575" t="n">
-        <v>87</v>
-      </c>
-      <c r="E575" t="inlineStr">
-        <is>
-          <t>V_0</t>
-        </is>
-      </c>
-      <c r="F575" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E575" t="inlineStr"/>
+      <c r="F575" t="inlineStr"/>
       <c r="G575" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -14419,16 +14431,16 @@
         <v>3</v>
       </c>
       <c r="D576" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="G576" t="n">
@@ -14441,10 +14453,10 @@
         <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D577" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -14461,11 +14473,7 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>AI_MV_AttackRangeToRange</t>
-        </is>
-      </c>
+      <c r="A578" t="inlineStr"/>
       <c r="B578" t="n">
         <v>0</v>
       </c>
@@ -14475,35 +14483,39 @@
       <c r="D578" t="n">
         <v>0</v>
       </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr"/>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G578" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="inlineStr"/>
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>AI_MV_NearestEnemyExcludePerson2</t>
+        </is>
+      </c>
       <c r="B579" t="n">
         <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D579" t="n">
-        <v>82</v>
-      </c>
-      <c r="E579" t="inlineStr">
-        <is>
-          <t>V_0</t>
-        </is>
-      </c>
-      <c r="F579" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E579" t="inlineStr"/>
+      <c r="F579" t="inlineStr"/>
       <c r="G579" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -14512,39 +14524,39 @@
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D580" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G580" t="n">
-        <v>1</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr"/>
       <c r="B581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C581" t="n">
         <v>3</v>
       </c>
       <c r="D581" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
@@ -14562,10 +14574,10 @@
         <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D582" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -14582,7 +14594,11 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr"/>
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>AI_MV_WeakEnemy</t>
+        </is>
+      </c>
       <c r="B583" t="n">
         <v>0</v>
       </c>
@@ -14592,39 +14608,35 @@
       <c r="D583" t="n">
         <v>0</v>
       </c>
-      <c r="E583" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F583" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E583" t="inlineStr"/>
+      <c r="F583" t="inlineStr"/>
       <c r="G583" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>AI_MV_AttackRangeToWait</t>
-        </is>
-      </c>
+      <c r="A584" t="inlineStr"/>
       <c r="B584" t="n">
         <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D584" t="n">
-        <v>0</v>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
+        <v>86</v>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G584" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="585">
@@ -14640,7 +14652,7 @@
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -14658,10 +14670,10 @@
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D586" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -14674,7 +14686,7 @@
         </is>
       </c>
       <c r="G586" t="n">
-        <v>1</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="587">
@@ -14683,10 +14695,10 @@
         <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D587" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -14703,7 +14715,11 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="inlineStr"/>
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>AI_MV_WeakEnemySide</t>
+        </is>
+      </c>
       <c r="B588" t="n">
         <v>0</v>
       </c>
@@ -14713,39 +14729,35 @@
       <c r="D588" t="n">
         <v>0</v>
       </c>
-      <c r="E588" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F588" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E588" t="inlineStr"/>
+      <c r="F588" t="inlineStr"/>
       <c r="G588" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>AI_MV_NearestHeal</t>
-        </is>
-      </c>
+      <c r="A589" t="inlineStr"/>
       <c r="B589" t="n">
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D589" t="n">
-        <v>0</v>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G589" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="590">
@@ -14757,7 +14769,7 @@
         <v>3</v>
       </c>
       <c r="D590" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -14826,7 +14838,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>AI_MV_HealRange</t>
+          <t>AI_MV_AttackRange</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -14853,7 +14865,7 @@
         <v>3</v>
       </c>
       <c r="D594" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -14922,7 +14934,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>AI_MV_NearestFriend</t>
+          <t>AI_MV_AttackRangeSide</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -14949,11 +14961,11 @@
         <v>3</v>
       </c>
       <c r="D598" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
@@ -15018,7 +15030,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>AI_MV_Hero</t>
+          <t>AI_MV_WeakRange</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -15045,11 +15057,11 @@
         <v>3</v>
       </c>
       <c r="D602" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
@@ -15070,11 +15082,11 @@
         <v>3</v>
       </c>
       <c r="D603" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
@@ -15092,10 +15104,10 @@
         <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D604" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -15112,7 +15124,11 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" t="inlineStr"/>
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>AI_MV_WeakRangeSide</t>
+        </is>
+      </c>
       <c r="B605" t="n">
         <v>0</v>
       </c>
@@ -15122,39 +15138,35 @@
       <c r="D605" t="n">
         <v>0</v>
       </c>
-      <c r="E605" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E605" t="inlineStr"/>
+      <c r="F605" t="inlineStr"/>
       <c r="G605" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>AI_MV_HeroOnly</t>
-        </is>
-      </c>
+      <c r="A606" t="inlineStr"/>
       <c r="B606" t="n">
         <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D606" t="n">
-        <v>0</v>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G606" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="607">
@@ -15166,7 +15178,7 @@
         <v>3</v>
       </c>
       <c r="D607" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -15188,10 +15200,10 @@
         <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D608" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E608" t="inlineStr">
         <is>
@@ -15208,7 +15220,11 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" t="inlineStr"/>
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>AI_MV_AttackRangeToRange</t>
+        </is>
+      </c>
       <c r="B609" t="n">
         <v>0</v>
       </c>
@@ -15218,39 +15234,35 @@
       <c r="D609" t="n">
         <v>0</v>
       </c>
-      <c r="E609" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F609" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E609" t="inlineStr"/>
+      <c r="F609" t="inlineStr"/>
       <c r="G609" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>AI_MV_Person</t>
-        </is>
-      </c>
+      <c r="A610" t="inlineStr"/>
       <c r="B610" t="n">
         <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D610" t="n">
-        <v>0</v>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G610" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="611">
@@ -15259,14 +15271,14 @@
         <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D611" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
@@ -15275,13 +15287,13 @@
         </is>
       </c>
       <c r="G611" t="n">
-        <v>-128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr"/>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C612" t="n">
         <v>3</v>
@@ -15291,7 +15303,7 @@
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
@@ -15356,7 +15368,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>AI_MV_Force</t>
+          <t>AI_MV_AttackRangeToWait</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -15383,7 +15395,7 @@
         <v>3</v>
       </c>
       <c r="D616" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -15405,14 +15417,14 @@
         <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D617" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
@@ -15421,7 +15433,7 @@
         </is>
       </c>
       <c r="G617" t="n">
-        <v>-128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -15477,7 +15489,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>AI_MV_ForceExcludePerson</t>
+          <t>AI_MV_NearestHeal</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -15504,16 +15516,16 @@
         <v>3</v>
       </c>
       <c r="D621" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G621" t="n">
@@ -15529,11 +15541,11 @@
         <v>3</v>
       </c>
       <c r="D622" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
@@ -15551,10 +15563,10 @@
         <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D623" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -15571,7 +15583,11 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" t="inlineStr"/>
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>AI_MV_HealRange</t>
+        </is>
+      </c>
       <c r="B624" t="n">
         <v>0</v>
       </c>
@@ -15581,39 +15597,35 @@
       <c r="D624" t="n">
         <v>0</v>
       </c>
-      <c r="E624" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F624" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
       <c r="G624" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>AI_MV_Position</t>
-        </is>
-      </c>
+      <c r="A625" t="inlineStr"/>
       <c r="B625" t="n">
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D625" t="n">
-        <v>0</v>
-      </c>
-      <c r="E625" t="inlineStr"/>
-      <c r="F625" t="inlineStr"/>
+        <v>88</v>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G625" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="626">
@@ -15625,11 +15637,11 @@
         <v>3</v>
       </c>
       <c r="D626" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
@@ -15647,10 +15659,10 @@
         <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D627" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -15667,7 +15679,11 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" t="inlineStr"/>
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>AI_MV_NearestFriend</t>
+        </is>
+      </c>
       <c r="B628" t="n">
         <v>0</v>
       </c>
@@ -15677,39 +15693,35 @@
       <c r="D628" t="n">
         <v>0</v>
       </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F628" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E628" t="inlineStr"/>
+      <c r="F628" t="inlineStr"/>
       <c r="G628" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>AI_MV_Escape</t>
-        </is>
-      </c>
+      <c r="A629" t="inlineStr"/>
       <c r="B629" t="n">
         <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D629" t="n">
-        <v>0</v>
-      </c>
-      <c r="E629" t="inlineStr"/>
-      <c r="F629" t="inlineStr"/>
+        <v>97</v>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G629" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="630">
@@ -15721,16 +15733,16 @@
         <v>3</v>
       </c>
       <c r="D630" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G630" t="n">
@@ -15743,10 +15755,10 @@
         <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D631" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -15763,7 +15775,11 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" t="inlineStr"/>
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>AI_MV_Hero</t>
+        </is>
+      </c>
       <c r="B632" t="n">
         <v>0</v>
       </c>
@@ -15773,55 +15789,51 @@
       <c r="D632" t="n">
         <v>0</v>
       </c>
-      <c r="E632" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E632" t="inlineStr"/>
+      <c r="F632" t="inlineStr"/>
       <c r="G632" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>AI_MV_TreasureToEscape</t>
-        </is>
-      </c>
+      <c r="A633" t="inlineStr"/>
       <c r="B633" t="n">
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D633" t="n">
-        <v>0</v>
-      </c>
-      <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr"/>
+        <v>89</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G633" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr"/>
       <c r="B634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C634" t="n">
         <v>3</v>
       </c>
       <c r="D634" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
@@ -15836,22 +15848,22 @@
     <row r="635">
       <c r="A635" t="inlineStr"/>
       <c r="B635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C635" t="n">
         <v>3</v>
       </c>
       <c r="D635" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G635" t="n">
@@ -15861,10 +15873,10 @@
     <row r="636">
       <c r="A636" t="inlineStr"/>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D636" t="n">
         <v>0</v>
@@ -15880,53 +15892,49 @@
         </is>
       </c>
       <c r="G636" t="n">
-        <v>2</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="637">
-      <c r="A637" t="inlineStr"/>
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>AI_MV_HeroOnly</t>
+        </is>
+      </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D637" t="n">
-        <v>1</v>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>AI_MI_Escape</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E637" t="inlineStr"/>
+      <c r="F637" t="inlineStr"/>
       <c r="G637" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr"/>
       <c r="B638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D638" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>V_2</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G638" t="n">
@@ -15936,22 +15944,22 @@
     <row r="639">
       <c r="A639" t="inlineStr"/>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D639" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>V_3</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G639" t="n">
@@ -15961,10 +15969,10 @@
     <row r="640">
       <c r="A640" t="inlineStr"/>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D640" t="n">
         <v>0</v>
@@ -15984,28 +15992,24 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" t="inlineStr"/>
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>AI_MV_Person</t>
+        </is>
+      </c>
       <c r="B641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D641" t="n">
-        <v>96</v>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>V_2</t>
-        </is>
-      </c>
-      <c r="F641" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E641" t="inlineStr"/>
+      <c r="F641" t="inlineStr"/>
       <c r="G641" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -16017,11 +16021,11 @@
         <v>3</v>
       </c>
       <c r="D642" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
@@ -16039,14 +16043,14 @@
         <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D643" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
@@ -16059,40 +16063,44 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>AI_MV_VillageToAttack</t>
-        </is>
-      </c>
+      <c r="A644" t="inlineStr"/>
       <c r="B644" t="n">
         <v>0</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D644" t="n">
-        <v>0</v>
-      </c>
-      <c r="E644" t="inlineStr"/>
-      <c r="F644" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G644" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr"/>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D645" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -16105,44 +16113,40 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" t="inlineStr"/>
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>AI_MV_Force</t>
+        </is>
+      </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D646" t="n">
-        <v>95</v>
-      </c>
-      <c r="E646" t="inlineStr">
-        <is>
-          <t>V_0</t>
-        </is>
-      </c>
-      <c r="F646" t="inlineStr">
-        <is>
-          <t>V_1</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E646" t="inlineStr"/>
+      <c r="F646" t="inlineStr"/>
       <c r="G646" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr"/>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D647" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -16151,23 +16155,23 @@
         </is>
       </c>
       <c r="G647" t="n">
-        <v>2</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr"/>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D648" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>AI_AT_Attack</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -16182,17 +16186,17 @@
     <row r="649">
       <c r="A649" t="inlineStr"/>
       <c r="B649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D649" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
@@ -16207,17 +16211,17 @@
     <row r="650">
       <c r="A650" t="inlineStr"/>
       <c r="B650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
@@ -16230,49 +16234,45 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" t="inlineStr"/>
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>AI_MV_ForceExcludePerson</t>
+        </is>
+      </c>
       <c r="B651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D651" t="n">
         <v>0</v>
       </c>
-      <c r="E651" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F651" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr"/>
       <c r="G651" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr"/>
       <c r="B652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C652" t="n">
         <v>3</v>
       </c>
       <c r="D652" t="n">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G652" t="n">
@@ -16288,11 +16288,11 @@
         <v>3</v>
       </c>
       <c r="D653" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -16310,10 +16310,10 @@
         <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D654" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -16330,11 +16330,7 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>AI_MV_VillageToEscape</t>
-        </is>
-      </c>
+      <c r="A655" t="inlineStr"/>
       <c r="B655" t="n">
         <v>0</v>
       </c>
@@ -16344,47 +16340,51 @@
       <c r="D655" t="n">
         <v>0</v>
       </c>
-      <c r="E655" t="inlineStr"/>
-      <c r="F655" t="inlineStr"/>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G655" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="656">
-      <c r="A656" t="inlineStr"/>
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>AI_MV_Position</t>
+        </is>
+      </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D656" t="n">
-        <v>95</v>
-      </c>
-      <c r="E656" t="inlineStr">
-        <is>
-          <t>V_0</t>
-        </is>
-      </c>
-      <c r="F656" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
       <c r="G656" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr"/>
       <c r="B657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C657" t="n">
         <v>3</v>
       </c>
       <c r="D657" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G657" t="n">
@@ -16403,13 +16403,13 @@
     <row r="658">
       <c r="A658" t="inlineStr"/>
       <c r="B658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D658" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -16422,23 +16422,23 @@
         </is>
       </c>
       <c r="G658" t="n">
-        <v>2</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr"/>
       <c r="B659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C659" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>AI_MI_Escape</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -16451,49 +16451,45 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" t="inlineStr"/>
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>AI_MV_Escape</t>
+        </is>
+      </c>
       <c r="B660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D660" t="n">
-        <v>1</v>
-      </c>
-      <c r="E660" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F660" t="inlineStr">
-        <is>
-          <t>V_2</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
       <c r="G660" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr"/>
       <c r="B661" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D661" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>V_3</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G661" t="n">
@@ -16503,13 +16499,13 @@
     <row r="662">
       <c r="A662" t="inlineStr"/>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D662" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -16528,17 +16524,17 @@
     <row r="663">
       <c r="A663" t="inlineStr"/>
       <c r="B663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D663" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>V_2</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F663" t="inlineStr">
@@ -16551,44 +16547,40 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" t="inlineStr"/>
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>AI_MV_TreasureToEscape</t>
+        </is>
+      </c>
       <c r="B664" t="n">
         <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D664" t="n">
-        <v>81</v>
-      </c>
-      <c r="E664" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F664" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E664" t="inlineStr"/>
+      <c r="F664" t="inlineStr"/>
       <c r="G664" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr"/>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D665" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
@@ -16601,40 +16593,44 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>AI_MV_TerrainDestroy</t>
-        </is>
-      </c>
+      <c r="A666" t="inlineStr"/>
       <c r="B666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D666" t="n">
-        <v>0</v>
-      </c>
-      <c r="E666" t="inlineStr"/>
-      <c r="F666" t="inlineStr"/>
+        <v>94</v>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>V_1</t>
+        </is>
+      </c>
       <c r="G666" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr"/>
       <c r="B667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C667" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D667" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
@@ -16643,23 +16639,23 @@
         </is>
       </c>
       <c r="G667" t="n">
-        <v>-128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr"/>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D668" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>AI_MI_Escape</t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
@@ -16674,22 +16670,22 @@
     <row r="669">
       <c r="A669" t="inlineStr"/>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D669" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_2</t>
         </is>
       </c>
       <c r="G669" t="n">
@@ -16699,22 +16695,22 @@
     <row r="670">
       <c r="A670" t="inlineStr"/>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D670" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_3</t>
         </is>
       </c>
       <c r="G670" t="n">
@@ -16724,10 +16720,10 @@
     <row r="671">
       <c r="A671" t="inlineStr"/>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D671" t="n">
         <v>0</v>
@@ -16747,24 +16743,28 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>AI_MV_BreakDown</t>
-        </is>
-      </c>
+      <c r="A672" t="inlineStr"/>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D672" t="n">
-        <v>0</v>
-      </c>
-      <c r="E672" t="inlineStr"/>
-      <c r="F672" t="inlineStr"/>
+        <v>96</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>V_2</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G672" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="673">
@@ -16776,7 +16776,7 @@
         <v>3</v>
       </c>
       <c r="D673" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D674" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -16818,7 +16818,11 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr"/>
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>AI_MV_VillageToAttack</t>
+        </is>
+      </c>
       <c r="B675" t="n">
         <v>0</v>
       </c>
@@ -16828,60 +16832,56 @@
       <c r="D675" t="n">
         <v>0</v>
       </c>
-      <c r="E675" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F675" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E675" t="inlineStr"/>
+      <c r="F675" t="inlineStr"/>
       <c r="G675" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>AI_MV_Irregular</t>
-        </is>
-      </c>
+      <c r="A676" t="inlineStr"/>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D676" t="n">
-        <v>0</v>
-      </c>
-      <c r="E676" t="inlineStr"/>
-      <c r="F676" t="inlineStr"/>
+        <v>95</v>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G676" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr"/>
       <c r="B677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C677" t="n">
         <v>3</v>
       </c>
       <c r="D677" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G677" t="n">
@@ -16891,17 +16891,17 @@
     <row r="678">
       <c r="A678" t="inlineStr"/>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D678" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F678" t="inlineStr">
@@ -16910,23 +16910,23 @@
         </is>
       </c>
       <c r="G678" t="n">
-        <v>-128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr"/>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D679" t="n">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>AI_AT_Attack</t>
         </is>
       </c>
       <c r="F679" t="inlineStr">
@@ -16941,17 +16941,17 @@
     <row r="680">
       <c r="A680" t="inlineStr"/>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D680" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
@@ -16966,17 +16966,17 @@
     <row r="681">
       <c r="A681" t="inlineStr"/>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F681" t="inlineStr">
@@ -16989,30 +16989,34 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>AI_MV_IrregularWithContinuedMove</t>
-        </is>
-      </c>
+      <c r="A682" t="inlineStr"/>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C682" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D682" t="n">
         <v>0</v>
       </c>
-      <c r="E682" t="inlineStr"/>
-      <c r="F682" t="inlineStr"/>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G682" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr"/>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C683" t="n">
         <v>3</v>
@@ -17043,11 +17047,11 @@
         <v>3</v>
       </c>
       <c r="D684" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
@@ -17065,10 +17069,10 @@
         <v>0</v>
       </c>
       <c r="C685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D685" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -17085,7 +17089,11 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr"/>
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>AI_MV_VillageToEscape</t>
+        </is>
+      </c>
       <c r="B686" t="n">
         <v>0</v>
       </c>
@@ -17095,39 +17103,35 @@
       <c r="D686" t="n">
         <v>0</v>
       </c>
-      <c r="E686" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F686" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E686" t="inlineStr"/>
+      <c r="F686" t="inlineStr"/>
       <c r="G686" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>AI_MV_WaitToNearestEnemy</t>
-        </is>
-      </c>
+      <c r="A687" t="inlineStr"/>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D687" t="n">
-        <v>0</v>
-      </c>
-      <c r="E687" t="inlineStr"/>
-      <c r="F687" t="inlineStr"/>
+        <v>95</v>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G687" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="688">
@@ -17136,64 +17140,64 @@
         <v>1</v>
       </c>
       <c r="C688" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D688" t="n">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G688" t="n">
-        <v>2</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr"/>
       <c r="B689" t="n">
+        <v>1</v>
+      </c>
+      <c r="C689" t="n">
+        <v>1</v>
+      </c>
+      <c r="D689" t="n">
+        <v>0</v>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G689" t="n">
         <v>2</v>
-      </c>
-      <c r="C689" t="n">
-        <v>3</v>
-      </c>
-      <c r="D689" t="n">
-        <v>82</v>
-      </c>
-      <c r="E689" t="inlineStr">
-        <is>
-          <t>V_Max</t>
-        </is>
-      </c>
-      <c r="F689" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="G689" t="n">
-        <v>-128</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr"/>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D690" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>AI_MI_Escape</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
@@ -17208,22 +17212,22 @@
     <row r="691">
       <c r="A691" t="inlineStr"/>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_2</t>
         </is>
       </c>
       <c r="G691" t="n">
@@ -17231,40 +17235,44 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>AI_MV_Terrain</t>
-        </is>
-      </c>
+      <c r="A692" t="inlineStr"/>
       <c r="B692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C692" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D692" t="n">
-        <v>0</v>
-      </c>
-      <c r="E692" t="inlineStr"/>
-      <c r="F692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>V_3</t>
+        </is>
+      </c>
       <c r="G692" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr"/>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D693" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F693" t="inlineStr">
@@ -17279,17 +17287,17 @@
     <row r="694">
       <c r="A694" t="inlineStr"/>
       <c r="B694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C694" t="n">
         <v>3</v>
       </c>
       <c r="D694" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_2</t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
@@ -17307,10 +17315,10 @@
         <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D695" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17327,11 +17335,7 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>AI_MV_Rewarp</t>
-        </is>
-      </c>
+      <c r="A696" t="inlineStr"/>
       <c r="B696" t="n">
         <v>0</v>
       </c>
@@ -17341,35 +17345,39 @@
       <c r="D696" t="n">
         <v>0</v>
       </c>
-      <c r="E696" t="inlineStr"/>
-      <c r="F696" t="inlineStr"/>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G696" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr"/>
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>AI_MV_TerrainDestroy</t>
+        </is>
+      </c>
       <c r="B697" t="n">
         <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>108</v>
-      </c>
-      <c r="E697" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F697" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr"/>
       <c r="G697" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -17381,11 +17389,11 @@
         <v>3</v>
       </c>
       <c r="D698" t="n">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
@@ -17406,11 +17414,11 @@
         <v>3</v>
       </c>
       <c r="D699" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
@@ -17428,14 +17436,14 @@
         <v>0</v>
       </c>
       <c r="C700" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D700" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -17448,24 +17456,28 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>AI_MV_Retreat</t>
-        </is>
-      </c>
+      <c r="A701" t="inlineStr"/>
       <c r="B701" t="n">
         <v>0</v>
       </c>
       <c r="C701" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D701" t="n">
-        <v>0</v>
-      </c>
-      <c r="E701" t="inlineStr"/>
-      <c r="F701" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G701" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="702">
@@ -17474,10 +17486,10 @@
         <v>0</v>
       </c>
       <c r="C702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D702" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -17494,28 +17506,24 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr"/>
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>AI_MV_BreakDown</t>
+        </is>
+      </c>
       <c r="B703" t="n">
         <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D703" t="n">
-        <v>81</v>
-      </c>
-      <c r="E703" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F703" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E703" t="inlineStr"/>
+      <c r="F703" t="inlineStr"/>
       <c r="G703" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -17524,10 +17532,10 @@
         <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D704" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -17544,24 +17552,28 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>AI_MV_Versus</t>
-        </is>
-      </c>
+      <c r="A705" t="inlineStr"/>
       <c r="B705" t="n">
         <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D705" t="n">
-        <v>0</v>
-      </c>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G705" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="706">
@@ -17570,14 +17582,14 @@
         <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D706" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
@@ -17590,28 +17602,24 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" t="inlineStr"/>
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>AI_MV_Irregular</t>
+        </is>
+      </c>
       <c r="B707" t="n">
         <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D707" t="n">
-        <v>98</v>
-      </c>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr"/>
       <c r="G707" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -17623,11 +17631,11 @@
         <v>3</v>
       </c>
       <c r="D708" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
@@ -17648,11 +17656,11 @@
         <v>3</v>
       </c>
       <c r="D709" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F709" t="inlineStr">
@@ -17670,10 +17678,10 @@
         <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D710" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -17686,6 +17694,757 @@
         </is>
       </c>
       <c r="G710" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr"/>
+      <c r="B711" t="n">
+        <v>0</v>
+      </c>
+      <c r="C711" t="n">
+        <v>3</v>
+      </c>
+      <c r="D711" t="n">
+        <v>81</v>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G711" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr"/>
+      <c r="B712" t="n">
+        <v>0</v>
+      </c>
+      <c r="C712" t="n">
+        <v>0</v>
+      </c>
+      <c r="D712" t="n">
+        <v>0</v>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G712" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>AI_MV_IrregularWithContinuedMove</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0</v>
+      </c>
+      <c r="C713" t="n">
+        <v>0</v>
+      </c>
+      <c r="D713" t="n">
+        <v>0</v>
+      </c>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr"/>
+      <c r="B714" t="n">
+        <v>0</v>
+      </c>
+      <c r="C714" t="n">
+        <v>3</v>
+      </c>
+      <c r="D714" t="n">
+        <v>82</v>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G714" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr"/>
+      <c r="B715" t="n">
+        <v>0</v>
+      </c>
+      <c r="C715" t="n">
+        <v>3</v>
+      </c>
+      <c r="D715" t="n">
+        <v>88</v>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G715" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr"/>
+      <c r="B716" t="n">
+        <v>0</v>
+      </c>
+      <c r="C716" t="n">
+        <v>3</v>
+      </c>
+      <c r="D716" t="n">
+        <v>81</v>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G716" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr"/>
+      <c r="B717" t="n">
+        <v>0</v>
+      </c>
+      <c r="C717" t="n">
+        <v>0</v>
+      </c>
+      <c r="D717" t="n">
+        <v>0</v>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G717" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>AI_MV_WaitToNearestEnemy</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0</v>
+      </c>
+      <c r="C718" t="n">
+        <v>0</v>
+      </c>
+      <c r="D718" t="n">
+        <v>0</v>
+      </c>
+      <c r="E718" t="inlineStr"/>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr"/>
+      <c r="B719" t="n">
+        <v>1</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1</v>
+      </c>
+      <c r="D719" t="n">
+        <v>13</v>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G719" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr"/>
+      <c r="B720" t="n">
+        <v>2</v>
+      </c>
+      <c r="C720" t="n">
+        <v>3</v>
+      </c>
+      <c r="D720" t="n">
+        <v>82</v>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G720" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr"/>
+      <c r="B721" t="n">
+        <v>0</v>
+      </c>
+      <c r="C721" t="n">
+        <v>3</v>
+      </c>
+      <c r="D721" t="n">
+        <v>81</v>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G721" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr"/>
+      <c r="B722" t="n">
+        <v>0</v>
+      </c>
+      <c r="C722" t="n">
+        <v>0</v>
+      </c>
+      <c r="D722" t="n">
+        <v>0</v>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G722" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>AI_MV_Terrain</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>0</v>
+      </c>
+      <c r="C723" t="n">
+        <v>0</v>
+      </c>
+      <c r="D723" t="n">
+        <v>0</v>
+      </c>
+      <c r="E723" t="inlineStr"/>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr"/>
+      <c r="B724" t="n">
+        <v>0</v>
+      </c>
+      <c r="C724" t="n">
+        <v>3</v>
+      </c>
+      <c r="D724" t="n">
+        <v>101</v>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G724" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr"/>
+      <c r="B725" t="n">
+        <v>0</v>
+      </c>
+      <c r="C725" t="n">
+        <v>3</v>
+      </c>
+      <c r="D725" t="n">
+        <v>81</v>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G725" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr"/>
+      <c r="B726" t="n">
+        <v>0</v>
+      </c>
+      <c r="C726" t="n">
+        <v>0</v>
+      </c>
+      <c r="D726" t="n">
+        <v>0</v>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G726" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>AI_MV_Rewarp</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>0</v>
+      </c>
+      <c r="C727" t="n">
+        <v>0</v>
+      </c>
+      <c r="D727" t="n">
+        <v>0</v>
+      </c>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr"/>
+      <c r="B728" t="n">
+        <v>0</v>
+      </c>
+      <c r="C728" t="n">
+        <v>3</v>
+      </c>
+      <c r="D728" t="n">
+        <v>108</v>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G728" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr"/>
+      <c r="B729" t="n">
+        <v>0</v>
+      </c>
+      <c r="C729" t="n">
+        <v>3</v>
+      </c>
+      <c r="D729" t="n">
+        <v>82</v>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G729" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr"/>
+      <c r="B730" t="n">
+        <v>0</v>
+      </c>
+      <c r="C730" t="n">
+        <v>3</v>
+      </c>
+      <c r="D730" t="n">
+        <v>81</v>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G730" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="n">
+        <v>0</v>
+      </c>
+      <c r="C731" t="n">
+        <v>0</v>
+      </c>
+      <c r="D731" t="n">
+        <v>0</v>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G731" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>AI_MV_Retreat</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>0</v>
+      </c>
+      <c r="C732" t="n">
+        <v>0</v>
+      </c>
+      <c r="D732" t="n">
+        <v>0</v>
+      </c>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr"/>
+      <c r="B733" t="n">
+        <v>0</v>
+      </c>
+      <c r="C733" t="n">
+        <v>3</v>
+      </c>
+      <c r="D733" t="n">
+        <v>99</v>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G733" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr"/>
+      <c r="B734" t="n">
+        <v>0</v>
+      </c>
+      <c r="C734" t="n">
+        <v>3</v>
+      </c>
+      <c r="D734" t="n">
+        <v>81</v>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G734" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr"/>
+      <c r="B735" t="n">
+        <v>0</v>
+      </c>
+      <c r="C735" t="n">
+        <v>0</v>
+      </c>
+      <c r="D735" t="n">
+        <v>0</v>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G735" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>AI_MV_Versus</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0</v>
+      </c>
+      <c r="C736" t="n">
+        <v>0</v>
+      </c>
+      <c r="D736" t="n">
+        <v>0</v>
+      </c>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr"/>
+      <c r="B737" t="n">
+        <v>0</v>
+      </c>
+      <c r="C737" t="n">
+        <v>3</v>
+      </c>
+      <c r="D737" t="n">
+        <v>85</v>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G737" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr"/>
+      <c r="B738" t="n">
+        <v>0</v>
+      </c>
+      <c r="C738" t="n">
+        <v>3</v>
+      </c>
+      <c r="D738" t="n">
+        <v>98</v>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G738" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr"/>
+      <c r="B739" t="n">
+        <v>0</v>
+      </c>
+      <c r="C739" t="n">
+        <v>3</v>
+      </c>
+      <c r="D739" t="n">
+        <v>97</v>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G739" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr"/>
+      <c r="B740" t="n">
+        <v>0</v>
+      </c>
+      <c r="C740" t="n">
+        <v>3</v>
+      </c>
+      <c r="D740" t="n">
+        <v>81</v>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G740" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr"/>
+      <c r="B741" t="n">
+        <v>0</v>
+      </c>
+      <c r="C741" t="n">
+        <v>0</v>
+      </c>
+      <c r="D741" t="n">
+        <v>0</v>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G741" t="n">
         <v>-128</v>
       </c>
     </row>

--- a/data/xlsx/AI.xlsx
+++ b/data/xlsx/AI.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G741"/>
+  <dimension ref="A1:G786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -13524,7 +13524,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>AI_AT_EngageClassPresident</t>
+          <t>AI_AT_EngageWait</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -13576,7 +13576,7 @@
         <v>3</v>
       </c>
       <c r="D541" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>3</v>
       </c>
       <c r="D542" t="n">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>3</v>
       </c>
       <c r="D543" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -13645,13 +13645,13 @@
     <row r="544">
       <c r="A544" t="inlineStr"/>
       <c r="B544" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C544" t="n">
         <v>3</v>
       </c>
       <c r="D544" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -13670,13 +13670,13 @@
     <row r="545">
       <c r="A545" t="inlineStr"/>
       <c r="B545" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D545" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -13693,7 +13693,11 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="inlineStr"/>
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>AI_AT_EngageWaitGaze</t>
+        </is>
+      </c>
       <c r="B546" t="n">
         <v>0</v>
       </c>
@@ -13703,39 +13707,35 @@
       <c r="D546" t="n">
         <v>0</v>
       </c>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F546" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
       <c r="G546" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>AI_AT_Versus</t>
-        </is>
-      </c>
+      <c r="A547" t="inlineStr"/>
       <c r="B547" t="n">
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
-      </c>
-      <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G547" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="548">
@@ -13747,11 +13747,11 @@
         <v>3</v>
       </c>
       <c r="D548" t="n">
-        <v>-11</v>
+        <v>121</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_2</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -13772,16 +13772,16 @@
         <v>3</v>
       </c>
       <c r="D549" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G549" t="n">
@@ -13797,7 +13797,7 @@
         <v>3</v>
       </c>
       <c r="D550" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -13822,7 +13822,7 @@
         <v>3</v>
       </c>
       <c r="D551" t="n">
-        <v>-1</v>
+        <v>71</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -13841,13 +13841,13 @@
     <row r="552">
       <c r="A552" t="inlineStr"/>
       <c r="B552" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C552" t="n">
         <v>3</v>
       </c>
       <c r="D552" t="n">
-        <v>-3</v>
+        <v>74</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -13869,14 +13869,14 @@
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D553" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -13889,28 +13889,24 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr"/>
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>AI_AT_EngageDecoy</t>
+        </is>
+      </c>
       <c r="B554" t="n">
         <v>0</v>
       </c>
       <c r="C554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D554" t="n">
-        <v>-5</v>
-      </c>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F554" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E554" t="inlineStr"/>
+      <c r="F554" t="inlineStr"/>
       <c r="G554" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -13922,7 +13918,7 @@
         <v>3</v>
       </c>
       <c r="D555" t="n">
-        <v>-6</v>
+        <v>41</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -13947,16 +13943,16 @@
         <v>3</v>
       </c>
       <c r="D556" t="n">
-        <v>-12</v>
+        <v>50</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G556" t="n">
@@ -13972,7 +13968,7 @@
         <v>3</v>
       </c>
       <c r="D557" t="n">
-        <v>-10</v>
+        <v>114</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -13997,7 +13993,7 @@
         <v>3</v>
       </c>
       <c r="D558" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -14022,7 +14018,7 @@
         <v>3</v>
       </c>
       <c r="D559" t="n">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -14041,13 +14037,13 @@
     <row r="560">
       <c r="A560" t="inlineStr"/>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C560" t="n">
         <v>3</v>
       </c>
       <c r="D560" t="n">
-        <v>-8</v>
+        <v>74</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -14069,10 +14065,10 @@
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D561" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -14089,28 +14085,24 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr"/>
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>AI_AT_EngageClassPresident</t>
+        </is>
+      </c>
       <c r="B562" t="n">
         <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D562" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F562" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E562" t="inlineStr"/>
+      <c r="F562" t="inlineStr"/>
       <c r="G562" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -14119,10 +14111,10 @@
         <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D563" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -14139,24 +14131,28 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>AI_MV_Null</t>
-        </is>
-      </c>
+      <c r="A564" t="inlineStr"/>
       <c r="B564" t="n">
         <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D564" t="n">
-        <v>0</v>
-      </c>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>V_1</t>
+        </is>
+      </c>
       <c r="G564" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="565">
@@ -14168,7 +14164,7 @@
         <v>3</v>
       </c>
       <c r="D565" t="n">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -14190,10 +14186,10 @@
         <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -14210,40 +14206,44 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>AI_MV_NearestEnemy</t>
-        </is>
-      </c>
+      <c r="A567" t="inlineStr"/>
       <c r="B567" t="n">
         <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D567" t="n">
-        <v>0</v>
-      </c>
-      <c r="E567" t="inlineStr"/>
-      <c r="F567" t="inlineStr"/>
+        <v>71</v>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G567" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr"/>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C568" t="n">
         <v>3</v>
       </c>
       <c r="D568" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -14261,10 +14261,10 @@
         <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D569" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -14281,7 +14281,11 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="inlineStr"/>
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>AI_AT_EngageCamilla</t>
+        </is>
+      </c>
       <c r="B570" t="n">
         <v>0</v>
       </c>
@@ -14291,39 +14295,35 @@
       <c r="D570" t="n">
         <v>0</v>
       </c>
-      <c r="E570" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E570" t="inlineStr"/>
+      <c r="F570" t="inlineStr"/>
       <c r="G570" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>AI_MV_NearestEnemySide</t>
-        </is>
-      </c>
+      <c r="A571" t="inlineStr"/>
       <c r="B571" t="n">
         <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D571" t="n">
-        <v>0</v>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G571" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="572">
@@ -14335,16 +14335,16 @@
         <v>3</v>
       </c>
       <c r="D572" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G572" t="n">
@@ -14360,7 +14360,7 @@
         <v>3</v>
       </c>
       <c r="D573" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -14382,10 +14382,10 @@
         <v>0</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D574" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -14402,24 +14402,28 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>AI_MV_NearestEnemyExcludePerson</t>
-        </is>
-      </c>
+      <c r="A575" t="inlineStr"/>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D575" t="n">
-        <v>0</v>
-      </c>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
+        <v>74</v>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G575" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="576">
@@ -14428,19 +14432,19 @@
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D576" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G576" t="n">
@@ -14448,28 +14452,24 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr"/>
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>AI_AT_EngageMagicShield</t>
+        </is>
+      </c>
       <c r="B577" t="n">
         <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D577" t="n">
-        <v>81</v>
-      </c>
-      <c r="E577" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F577" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" t="inlineStr"/>
       <c r="G577" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -14478,10 +14478,10 @@
         <v>0</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D578" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -14498,24 +14498,28 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>AI_MV_NearestEnemyExcludePerson2</t>
-        </is>
-      </c>
+      <c r="A579" t="inlineStr"/>
       <c r="B579" t="n">
         <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D579" t="n">
-        <v>0</v>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>V_1</t>
+        </is>
+      </c>
       <c r="G579" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="580">
@@ -14527,16 +14531,16 @@
         <v>3</v>
       </c>
       <c r="D580" t="n">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G580" t="n">
@@ -14552,7 +14556,7 @@
         <v>3</v>
       </c>
       <c r="D581" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -14574,10 +14578,10 @@
         <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D582" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -14594,24 +14598,28 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>AI_MV_WeakEnemy</t>
-        </is>
-      </c>
+      <c r="A583" t="inlineStr"/>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D583" t="n">
-        <v>0</v>
-      </c>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
+        <v>74</v>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G583" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="584">
@@ -14620,14 +14628,14 @@
         <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D584" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
@@ -14640,28 +14648,24 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr"/>
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>AI_AT_Enchant</t>
+        </is>
+      </c>
       <c r="B585" t="n">
         <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D585" t="n">
-        <v>82</v>
-      </c>
-      <c r="E585" t="inlineStr">
-        <is>
-          <t>V_Max</t>
-        </is>
-      </c>
-      <c r="F585" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E585" t="inlineStr"/>
+      <c r="F585" t="inlineStr"/>
       <c r="G585" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
@@ -14673,7 +14677,7 @@
         <v>3</v>
       </c>
       <c r="D586" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -14695,10 +14699,10 @@
         <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D587" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E587" t="inlineStr">
         <is>
@@ -14715,24 +14719,28 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>AI_MV_WeakEnemySide</t>
-        </is>
-      </c>
+      <c r="A588" t="inlineStr"/>
       <c r="B588" t="n">
         <v>0</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G588" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="589">
@@ -14744,11 +14752,11 @@
         <v>3</v>
       </c>
       <c r="D589" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -14763,17 +14771,17 @@
     <row r="590">
       <c r="A590" t="inlineStr"/>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C590" t="n">
         <v>3</v>
       </c>
       <c r="D590" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -14791,10 +14799,10 @@
         <v>0</v>
       </c>
       <c r="C591" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D591" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -14811,7 +14819,11 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr"/>
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>AI_AT_Versus</t>
+        </is>
+      </c>
       <c r="B592" t="n">
         <v>0</v>
       </c>
@@ -14821,39 +14833,35 @@
       <c r="D592" t="n">
         <v>0</v>
       </c>
-      <c r="E592" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E592" t="inlineStr"/>
+      <c r="F592" t="inlineStr"/>
       <c r="G592" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>AI_MV_AttackRange</t>
-        </is>
-      </c>
+      <c r="A593" t="inlineStr"/>
       <c r="B593" t="n">
         <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D593" t="n">
-        <v>0</v>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr"/>
+        <v>-11</v>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G593" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="594">
@@ -14865,11 +14873,11 @@
         <v>3</v>
       </c>
       <c r="D594" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -14890,7 +14898,7 @@
         <v>3</v>
       </c>
       <c r="D595" t="n">
-        <v>81</v>
+        <v>-2</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -14912,10 +14920,10 @@
         <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D596" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -14932,24 +14940,28 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>AI_MV_AttackRangeSide</t>
-        </is>
-      </c>
+      <c r="A597" t="inlineStr"/>
       <c r="B597" t="n">
         <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D597" t="n">
-        <v>0</v>
-      </c>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
+        <v>-3</v>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G597" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="598">
@@ -14961,11 +14973,11 @@
         <v>3</v>
       </c>
       <c r="D598" t="n">
-        <v>83</v>
+        <v>-5</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
@@ -14986,11 +14998,11 @@
         <v>3</v>
       </c>
       <c r="D599" t="n">
-        <v>81</v>
+        <v>-5</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -15008,10 +15020,10 @@
         <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D600" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E600" t="inlineStr">
         <is>
@@ -15028,24 +15040,28 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>AI_MV_WeakRange</t>
-        </is>
-      </c>
+      <c r="A601" t="inlineStr"/>
       <c r="B601" t="n">
         <v>0</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D601" t="n">
-        <v>0</v>
-      </c>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
+        <v>-12</v>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G601" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="602">
@@ -15057,11 +15073,11 @@
         <v>3</v>
       </c>
       <c r="D602" t="n">
-        <v>86</v>
+        <v>-10</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
@@ -15082,7 +15098,7 @@
         <v>3</v>
       </c>
       <c r="D603" t="n">
-        <v>81</v>
+        <v>-4</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -15104,10 +15120,10 @@
         <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D604" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -15124,24 +15140,28 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>AI_MV_WeakRangeSide</t>
-        </is>
-      </c>
+      <c r="A605" t="inlineStr"/>
       <c r="B605" t="n">
         <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr"/>
+        <v>-8</v>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G605" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="606">
@@ -15153,11 +15173,11 @@
         <v>3</v>
       </c>
       <c r="D606" t="n">
-        <v>87</v>
+        <v>-9</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -15178,7 +15198,7 @@
         <v>3</v>
       </c>
       <c r="D607" t="n">
-        <v>81</v>
+        <v>-7</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -15222,7 +15242,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>AI_MV_AttackRangeToRange</t>
+          <t>AI_MV_Null</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -15249,11 +15269,11 @@
         <v>3</v>
       </c>
       <c r="D610" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -15271,7 +15291,7 @@
         <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D611" t="n">
         <v>0</v>
@@ -15287,32 +15307,28 @@
         </is>
       </c>
       <c r="G611" t="n">
-        <v>1</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="612">
-      <c r="A612" t="inlineStr"/>
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>AI_MV_NearestEnemy</t>
+        </is>
+      </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D612" t="n">
-        <v>82</v>
-      </c>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>V_1</t>
-        </is>
-      </c>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E612" t="inlineStr"/>
+      <c r="F612" t="inlineStr"/>
       <c r="G612" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -15324,11 +15340,11 @@
         <v>3</v>
       </c>
       <c r="D613" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
@@ -15346,10 +15362,10 @@
         <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D614" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -15366,11 +15382,7 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>AI_MV_AttackRangeToWait</t>
-        </is>
-      </c>
+      <c r="A615" t="inlineStr"/>
       <c r="B615" t="n">
         <v>0</v>
       </c>
@@ -15380,35 +15392,39 @@
       <c r="D615" t="n">
         <v>0</v>
       </c>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr"/>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G615" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="616">
-      <c r="A616" t="inlineStr"/>
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>AI_MV_NearestEnemySide</t>
+        </is>
+      </c>
       <c r="B616" t="n">
         <v>0</v>
       </c>
       <c r="C616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D616" t="n">
-        <v>82</v>
-      </c>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>V_0</t>
-        </is>
-      </c>
-      <c r="F616" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E616" t="inlineStr"/>
+      <c r="F616" t="inlineStr"/>
       <c r="G616" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -15417,14 +15433,14 @@
         <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D617" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
@@ -15433,7 +15449,7 @@
         </is>
       </c>
       <c r="G617" t="n">
-        <v>1</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="618">
@@ -15489,7 +15505,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>AI_MV_NearestHeal</t>
+          <t>AI_MV_NearestEnemyExcludePerson</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -15516,7 +15532,7 @@
         <v>3</v>
       </c>
       <c r="D621" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -15525,7 +15541,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="G621" t="n">
@@ -15585,7 +15601,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>AI_MV_HealRange</t>
+          <t>AI_MV_NearestEnemyExcludePerson2</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -15612,7 +15628,7 @@
         <v>3</v>
       </c>
       <c r="D625" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -15621,7 +15637,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G625" t="n">
@@ -15681,7 +15697,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>AI_MV_NearestFriend</t>
+          <t>AI_MV_WeakEnemy</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -15708,11 +15724,11 @@
         <v>3</v>
       </c>
       <c r="D629" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -15733,11 +15749,11 @@
         <v>3</v>
       </c>
       <c r="D630" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
@@ -15755,10 +15771,10 @@
         <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D631" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -15775,11 +15791,7 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>AI_MV_Hero</t>
-        </is>
-      </c>
+      <c r="A632" t="inlineStr"/>
       <c r="B632" t="n">
         <v>0</v>
       </c>
@@ -15789,35 +15801,39 @@
       <c r="D632" t="n">
         <v>0</v>
       </c>
-      <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr"/>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G632" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="633">
-      <c r="A633" t="inlineStr"/>
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>AI_MV_WeakEnemySide</t>
+        </is>
+      </c>
       <c r="B633" t="n">
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D633" t="n">
-        <v>89</v>
-      </c>
-      <c r="E633" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E633" t="inlineStr"/>
+      <c r="F633" t="inlineStr"/>
       <c r="G633" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -15829,11 +15845,11 @@
         <v>3</v>
       </c>
       <c r="D634" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
@@ -15854,11 +15870,11 @@
         <v>3</v>
       </c>
       <c r="D635" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
@@ -15876,10 +15892,10 @@
         <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D636" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -15896,11 +15912,7 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>AI_MV_HeroOnly</t>
-        </is>
-      </c>
+      <c r="A637" t="inlineStr"/>
       <c r="B637" t="n">
         <v>0</v>
       </c>
@@ -15910,35 +15922,39 @@
       <c r="D637" t="n">
         <v>0</v>
       </c>
-      <c r="E637" t="inlineStr"/>
-      <c r="F637" t="inlineStr"/>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G637" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="638">
-      <c r="A638" t="inlineStr"/>
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>AI_MV_AttackRange</t>
+        </is>
+      </c>
       <c r="B638" t="n">
         <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D638" t="n">
-        <v>89</v>
-      </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr"/>
       <c r="G638" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -15950,11 +15966,11 @@
         <v>3</v>
       </c>
       <c r="D639" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
@@ -15972,10 +15988,10 @@
         <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D640" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -15992,11 +16008,7 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>AI_MV_Person</t>
-        </is>
-      </c>
+      <c r="A641" t="inlineStr"/>
       <c r="B641" t="n">
         <v>0</v>
       </c>
@@ -16006,35 +16018,39 @@
       <c r="D641" t="n">
         <v>0</v>
       </c>
-      <c r="E641" t="inlineStr"/>
-      <c r="F641" t="inlineStr"/>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G641" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="642">
-      <c r="A642" t="inlineStr"/>
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>AI_MV_AttackRangeSide</t>
+        </is>
+      </c>
       <c r="B642" t="n">
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D642" t="n">
-        <v>90</v>
-      </c>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>V_0</t>
-        </is>
-      </c>
-      <c r="F642" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E642" t="inlineStr"/>
+      <c r="F642" t="inlineStr"/>
       <c r="G642" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -16046,11 +16062,11 @@
         <v>3</v>
       </c>
       <c r="D643" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
@@ -16115,7 +16131,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>AI_MV_Force</t>
+          <t>AI_MV_WeakRange</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -16142,7 +16158,7 @@
         <v>3</v>
       </c>
       <c r="D647" t="n">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -16167,11 +16183,11 @@
         <v>3</v>
       </c>
       <c r="D648" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -16189,10 +16205,10 @@
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D649" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E649" t="inlineStr">
         <is>
@@ -16209,7 +16225,11 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" t="inlineStr"/>
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>AI_MV_WeakRangeSide</t>
+        </is>
+      </c>
       <c r="B650" t="n">
         <v>0</v>
       </c>
@@ -16219,39 +16239,35 @@
       <c r="D650" t="n">
         <v>0</v>
       </c>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F650" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr"/>
       <c r="G650" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>AI_MV_ForceExcludePerson</t>
-        </is>
-      </c>
+      <c r="A651" t="inlineStr"/>
       <c r="B651" t="n">
         <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D651" t="n">
-        <v>0</v>
-      </c>
-      <c r="E651" t="inlineStr"/>
-      <c r="F651" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G651" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="652">
@@ -16263,16 +16279,16 @@
         <v>3</v>
       </c>
       <c r="D652" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G652" t="n">
@@ -16285,14 +16301,14 @@
         <v>0</v>
       </c>
       <c r="C653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D653" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -16305,28 +16321,24 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" t="inlineStr"/>
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>AI_MV_AttackRangeToRange</t>
+        </is>
+      </c>
       <c r="B654" t="n">
         <v>0</v>
       </c>
       <c r="C654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D654" t="n">
-        <v>81</v>
-      </c>
-      <c r="E654" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F654" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E654" t="inlineStr"/>
+      <c r="F654" t="inlineStr"/>
       <c r="G654" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -16335,14 +16347,14 @@
         <v>0</v>
       </c>
       <c r="C655" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D655" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
@@ -16355,40 +16367,44 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>AI_MV_Position</t>
-        </is>
-      </c>
+      <c r="A656" t="inlineStr"/>
       <c r="B656" t="n">
         <v>0</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D656" t="n">
         <v>0</v>
       </c>
-      <c r="E656" t="inlineStr"/>
-      <c r="F656" t="inlineStr"/>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr"/>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
         <v>3</v>
       </c>
       <c r="D657" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
@@ -16453,7 +16469,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>AI_MV_Escape</t>
+          <t>AI_MV_AttackRangeToWait</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -16480,7 +16496,7 @@
         <v>3</v>
       </c>
       <c r="D661" t="n">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -16489,7 +16505,7 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G661" t="n">
@@ -16502,10 +16518,10 @@
         <v>0</v>
       </c>
       <c r="C662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D662" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -16518,7 +16534,7 @@
         </is>
       </c>
       <c r="G662" t="n">
-        <v>-128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
@@ -16527,10 +16543,10 @@
         <v>0</v>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D663" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -16547,11 +16563,7 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>AI_MV_TreasureToEscape</t>
-        </is>
-      </c>
+      <c r="A664" t="inlineStr"/>
       <c r="B664" t="n">
         <v>0</v>
       </c>
@@ -16561,56 +16573,60 @@
       <c r="D664" t="n">
         <v>0</v>
       </c>
-      <c r="E664" t="inlineStr"/>
-      <c r="F664" t="inlineStr"/>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G664" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="665">
-      <c r="A665" t="inlineStr"/>
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>AI_MV_NearestHeal</t>
+        </is>
+      </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D665" t="n">
-        <v>94</v>
-      </c>
-      <c r="E665" t="inlineStr">
-        <is>
-          <t>V_0</t>
-        </is>
-      </c>
-      <c r="F665" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr"/>
       <c r="G665" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr"/>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
         <v>3</v>
       </c>
       <c r="D666" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G666" t="n">
@@ -16620,13 +16636,13 @@
     <row r="667">
       <c r="A667" t="inlineStr"/>
       <c r="B667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D667" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -16639,23 +16655,23 @@
         </is>
       </c>
       <c r="G667" t="n">
-        <v>2</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr"/>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>AI_MI_Escape</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
@@ -16668,49 +16684,45 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" t="inlineStr"/>
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>AI_MV_HealRange</t>
+        </is>
+      </c>
       <c r="B669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D669" t="n">
-        <v>1</v>
-      </c>
-      <c r="E669" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F669" t="inlineStr">
-        <is>
-          <t>V_2</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E669" t="inlineStr"/>
+      <c r="F669" t="inlineStr"/>
       <c r="G669" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr"/>
       <c r="B670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D670" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>V_3</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G670" t="n">
@@ -16720,13 +16732,13 @@
     <row r="671">
       <c r="A671" t="inlineStr"/>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D671" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -16745,17 +16757,17 @@
     <row r="672">
       <c r="A672" t="inlineStr"/>
       <c r="B672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D672" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>V_2</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F672" t="inlineStr">
@@ -16768,28 +16780,24 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" t="inlineStr"/>
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>AI_MV_NearestFriend</t>
+        </is>
+      </c>
       <c r="B673" t="n">
         <v>0</v>
       </c>
       <c r="C673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D673" t="n">
-        <v>81</v>
-      </c>
-      <c r="E673" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F673" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr"/>
       <c r="G673" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -16798,14 +16806,14 @@
         <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D674" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F674" t="inlineStr">
@@ -16818,40 +16826,44 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>AI_MV_VillageToAttack</t>
-        </is>
-      </c>
+      <c r="A675" t="inlineStr"/>
       <c r="B675" t="n">
         <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D675" t="n">
-        <v>0</v>
-      </c>
-      <c r="E675" t="inlineStr"/>
-      <c r="F675" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G675" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr"/>
       <c r="B676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D676" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F676" t="inlineStr">
@@ -16864,40 +16876,36 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr"/>
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>AI_MV_Hero</t>
+        </is>
+      </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D677" t="n">
-        <v>95</v>
-      </c>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>V_0</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr">
-        <is>
-          <t>V_1</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E677" t="inlineStr"/>
+      <c r="F677" t="inlineStr"/>
       <c r="G677" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr"/>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D678" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -16910,23 +16918,23 @@
         </is>
       </c>
       <c r="G678" t="n">
-        <v>2</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr"/>
       <c r="B679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C679" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D679" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>AI_AT_Attack</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F679" t="inlineStr">
@@ -16941,17 +16949,17 @@
     <row r="680">
       <c r="A680" t="inlineStr"/>
       <c r="B680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C680" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D680" t="n">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
@@ -16966,17 +16974,17 @@
     <row r="681">
       <c r="A681" t="inlineStr"/>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F681" t="inlineStr">
@@ -16989,44 +16997,40 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr"/>
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>AI_MV_HeroOnly</t>
+        </is>
+      </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D682" t="n">
         <v>0</v>
       </c>
-      <c r="E682" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F682" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E682" t="inlineStr"/>
+      <c r="F682" t="inlineStr"/>
       <c r="G682" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr"/>
       <c r="B683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
         <v>3</v>
       </c>
       <c r="D683" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F683" t="inlineStr">
@@ -17091,7 +17095,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>AI_MV_VillageToEscape</t>
+          <t>AI_MV_Person</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -17112,13 +17116,13 @@
     <row r="687">
       <c r="A687" t="inlineStr"/>
       <c r="B687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687" t="n">
         <v>3</v>
       </c>
       <c r="D687" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E687" t="inlineStr">
         <is>
@@ -17137,22 +17141,22 @@
     <row r="688">
       <c r="A688" t="inlineStr"/>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
         <v>3</v>
       </c>
       <c r="D688" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>V_1</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G688" t="n">
@@ -17162,13 +17166,13 @@
     <row r="689">
       <c r="A689" t="inlineStr"/>
       <c r="B689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D689" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -17181,23 +17185,23 @@
         </is>
       </c>
       <c r="G689" t="n">
-        <v>2</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr"/>
       <c r="B690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C690" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>AI_MI_Escape</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
@@ -17210,49 +17214,45 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" t="inlineStr"/>
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>AI_MV_Force</t>
+        </is>
+      </c>
       <c r="B691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C691" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>1</v>
-      </c>
-      <c r="E691" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F691" t="inlineStr">
-        <is>
-          <t>V_2</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr"/>
       <c r="G691" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr"/>
       <c r="B692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C692" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D692" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>V_3</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="G692" t="n">
@@ -17262,17 +17262,17 @@
     <row r="693">
       <c r="A693" t="inlineStr"/>
       <c r="B693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D693" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F693" t="inlineStr">
@@ -17287,17 +17287,17 @@
     <row r="694">
       <c r="A694" t="inlineStr"/>
       <c r="B694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
         <v>3</v>
       </c>
       <c r="D694" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>V_2</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
@@ -17315,10 +17315,10 @@
         <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -17335,7 +17335,11 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr"/>
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>AI_MV_ForceExcludePerson</t>
+        </is>
+      </c>
       <c r="B696" t="n">
         <v>0</v>
       </c>
@@ -17345,39 +17349,35 @@
       <c r="D696" t="n">
         <v>0</v>
       </c>
-      <c r="E696" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F696" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr"/>
       <c r="G696" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>AI_MV_TerrainDestroy</t>
-        </is>
-      </c>
+      <c r="A697" t="inlineStr"/>
       <c r="B697" t="n">
         <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
-      </c>
-      <c r="E697" t="inlineStr"/>
-      <c r="F697" t="inlineStr"/>
+        <v>93</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>V_1</t>
+        </is>
+      </c>
       <c r="G697" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="698">
@@ -17389,11 +17389,11 @@
         <v>3</v>
       </c>
       <c r="D698" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
@@ -17414,11 +17414,11 @@
         <v>3</v>
       </c>
       <c r="D699" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
@@ -17436,14 +17436,14 @@
         <v>0</v>
       </c>
       <c r="C700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D700" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -17456,28 +17456,24 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" t="inlineStr"/>
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>AI_MV_Position</t>
+        </is>
+      </c>
       <c r="B701" t="n">
         <v>0</v>
       </c>
       <c r="C701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D701" t="n">
-        <v>81</v>
-      </c>
-      <c r="E701" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F701" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E701" t="inlineStr"/>
+      <c r="F701" t="inlineStr"/>
       <c r="G701" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -17486,14 +17482,14 @@
         <v>0</v>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D702" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
@@ -17506,24 +17502,28 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>AI_MV_BreakDown</t>
-        </is>
-      </c>
+      <c r="A703" t="inlineStr"/>
       <c r="B703" t="n">
         <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D703" t="n">
-        <v>0</v>
-      </c>
-      <c r="E703" t="inlineStr"/>
-      <c r="F703" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G703" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="704">
@@ -17532,10 +17532,10 @@
         <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D704" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -17552,28 +17552,24 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr"/>
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>AI_MV_Escape</t>
+        </is>
+      </c>
       <c r="B705" t="n">
         <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D705" t="n">
-        <v>81</v>
-      </c>
-      <c r="E705" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr"/>
       <c r="G705" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -17582,19 +17578,19 @@
         <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D706" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G706" t="n">
@@ -17602,24 +17598,28 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>AI_MV_Irregular</t>
-        </is>
-      </c>
+      <c r="A707" t="inlineStr"/>
       <c r="B707" t="n">
         <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D707" t="n">
-        <v>0</v>
-      </c>
-      <c r="E707" t="inlineStr"/>
-      <c r="F707" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G707" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="708">
@@ -17628,14 +17628,14 @@
         <v>0</v>
       </c>
       <c r="C708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D708" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
@@ -17648,44 +17648,40 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" t="inlineStr"/>
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>AI_MV_TreasureToEscape</t>
+        </is>
+      </c>
       <c r="B709" t="n">
         <v>0</v>
       </c>
       <c r="C709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D709" t="n">
-        <v>88</v>
-      </c>
-      <c r="E709" t="inlineStr">
-        <is>
-          <t>V_Max</t>
-        </is>
-      </c>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr"/>
       <c r="G709" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr"/>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
         <v>3</v>
       </c>
       <c r="D710" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F710" t="inlineStr">
@@ -17700,22 +17696,22 @@
     <row r="711">
       <c r="A711" t="inlineStr"/>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
         <v>3</v>
       </c>
       <c r="D711" t="n">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G711" t="n">
@@ -17725,10 +17721,10 @@
     <row r="712">
       <c r="A712" t="inlineStr"/>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C712" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D712" t="n">
         <v>0</v>
@@ -17744,49 +17740,53 @@
         </is>
       </c>
       <c r="G712" t="n">
-        <v>-128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>AI_MV_IrregularWithContinuedMove</t>
-        </is>
-      </c>
+      <c r="A713" t="inlineStr"/>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D713" t="n">
-        <v>0</v>
-      </c>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>AI_MI_Escape</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G713" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr"/>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D714" t="n">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_2</t>
         </is>
       </c>
       <c r="G714" t="n">
@@ -17796,22 +17796,22 @@
     <row r="715">
       <c r="A715" t="inlineStr"/>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D715" t="n">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_3</t>
         </is>
       </c>
       <c r="G715" t="n">
@@ -17821,13 +17821,13 @@
     <row r="716">
       <c r="A716" t="inlineStr"/>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D716" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E716" t="inlineStr">
         <is>
@@ -17846,17 +17846,17 @@
     <row r="717">
       <c r="A717" t="inlineStr"/>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D717" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_2</t>
         </is>
       </c>
       <c r="F717" t="inlineStr">
@@ -17869,36 +17869,40 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>AI_MV_WaitToNearestEnemy</t>
-        </is>
-      </c>
+      <c r="A718" t="inlineStr"/>
       <c r="B718" t="n">
         <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D718" t="n">
-        <v>0</v>
-      </c>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G718" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr"/>
       <c r="B719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D719" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -17911,48 +17915,44 @@
         </is>
       </c>
       <c r="G719" t="n">
-        <v>2</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="720">
-      <c r="A720" t="inlineStr"/>
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>AI_MV_VillageToAttack</t>
+        </is>
+      </c>
       <c r="B720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D720" t="n">
-        <v>82</v>
-      </c>
-      <c r="E720" t="inlineStr">
-        <is>
-          <t>V_Max</t>
-        </is>
-      </c>
-      <c r="F720" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
       <c r="G720" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr"/>
       <c r="B721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C721" t="n">
         <v>3</v>
       </c>
       <c r="D721" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F721" t="inlineStr">
@@ -17967,22 +17967,22 @@
     <row r="722">
       <c r="A722" t="inlineStr"/>
       <c r="B722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D722" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G722" t="n">
@@ -17990,40 +17990,44 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>AI_MV_Terrain</t>
-        </is>
-      </c>
+      <c r="A723" t="inlineStr"/>
       <c r="B723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D723" t="n">
         <v>0</v>
       </c>
-      <c r="E723" t="inlineStr"/>
-      <c r="F723" t="inlineStr"/>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr"/>
       <c r="B724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C724" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D724" t="n">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>V_0</t>
+          <t>AI_AT_Attack</t>
         </is>
       </c>
       <c r="F724" t="inlineStr">
@@ -18038,17 +18042,17 @@
     <row r="725">
       <c r="A725" t="inlineStr"/>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D725" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F725" t="inlineStr">
@@ -18063,17 +18067,17 @@
     <row r="726">
       <c r="A726" t="inlineStr"/>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C726" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F726" t="inlineStr">
@@ -18086,40 +18090,44 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>AI_MV_Rewarp</t>
-        </is>
-      </c>
+      <c r="A727" t="inlineStr"/>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C727" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D727" t="n">
         <v>0</v>
       </c>
-      <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr"/>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G727" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr"/>
       <c r="B728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C728" t="n">
         <v>3</v>
       </c>
       <c r="D728" t="n">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_Max</t>
         </is>
       </c>
       <c r="F728" t="inlineStr">
@@ -18140,11 +18148,11 @@
         <v>3</v>
       </c>
       <c r="D729" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>V_Default</t>
         </is>
       </c>
       <c r="F729" t="inlineStr">
@@ -18162,10 +18170,10 @@
         <v>0</v>
       </c>
       <c r="C730" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D730" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -18182,7 +18190,11 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" t="inlineStr"/>
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>AI_MV_VillageToEscape</t>
+        </is>
+      </c>
       <c r="B731" t="n">
         <v>0</v>
       </c>
@@ -18192,60 +18204,56 @@
       <c r="D731" t="n">
         <v>0</v>
       </c>
-      <c r="E731" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
-      <c r="F731" t="inlineStr">
-        <is>
-          <t>V_Default</t>
-        </is>
-      </c>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr"/>
       <c r="G731" t="n">
-        <v>-128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>AI_MV_Retreat</t>
-        </is>
-      </c>
+      <c r="A732" t="inlineStr"/>
       <c r="B732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D732" t="n">
-        <v>0</v>
-      </c>
-      <c r="E732" t="inlineStr"/>
-      <c r="F732" t="inlineStr"/>
+        <v>95</v>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
       <c r="G732" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr"/>
       <c r="B733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C733" t="n">
         <v>3</v>
       </c>
       <c r="D733" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_0</t>
         </is>
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_1</t>
         </is>
       </c>
       <c r="G733" t="n">
@@ -18255,13 +18263,13 @@
     <row r="734">
       <c r="A734" t="inlineStr"/>
       <c r="B734" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C734" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D734" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -18274,23 +18282,23 @@
         </is>
       </c>
       <c r="G734" t="n">
-        <v>-128</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr"/>
       <c r="B735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C735" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>AI_MI_Escape</t>
         </is>
       </c>
       <c r="F735" t="inlineStr">
@@ -18303,45 +18311,49 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>AI_MV_Versus</t>
-        </is>
-      </c>
+      <c r="A736" t="inlineStr"/>
       <c r="B736" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C736" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D736" t="n">
-        <v>0</v>
-      </c>
-      <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>V_2</t>
+        </is>
+      </c>
       <c r="G736" t="n">
-        <v>0</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr"/>
       <c r="B737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C737" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D737" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="E737" t="inlineStr">
         <is>
-          <t>V_Max</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_3</t>
         </is>
       </c>
       <c r="G737" t="n">
@@ -18351,13 +18363,13 @@
     <row r="738">
       <c r="A738" t="inlineStr"/>
       <c r="B738" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C738" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D738" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E738" t="inlineStr">
         <is>
@@ -18376,17 +18388,17 @@
     <row r="739">
       <c r="A739" t="inlineStr"/>
       <c r="B739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C739" t="n">
         <v>3</v>
       </c>
       <c r="D739" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
-          <t>V_Default</t>
+          <t>V_2</t>
         </is>
       </c>
       <c r="F739" t="inlineStr">
@@ -18445,6 +18457,1095 @@
         </is>
       </c>
       <c r="G741" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>AI_MV_TerrainDestroy</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>0</v>
+      </c>
+      <c r="C742" t="n">
+        <v>0</v>
+      </c>
+      <c r="D742" t="n">
+        <v>0</v>
+      </c>
+      <c r="E742" t="inlineStr"/>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr"/>
+      <c r="B743" t="n">
+        <v>0</v>
+      </c>
+      <c r="C743" t="n">
+        <v>3</v>
+      </c>
+      <c r="D743" t="n">
+        <v>68</v>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G743" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr"/>
+      <c r="B744" t="n">
+        <v>0</v>
+      </c>
+      <c r="C744" t="n">
+        <v>3</v>
+      </c>
+      <c r="D744" t="n">
+        <v>98</v>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G744" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr"/>
+      <c r="B745" t="n">
+        <v>0</v>
+      </c>
+      <c r="C745" t="n">
+        <v>3</v>
+      </c>
+      <c r="D745" t="n">
+        <v>82</v>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G745" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr"/>
+      <c r="B746" t="n">
+        <v>0</v>
+      </c>
+      <c r="C746" t="n">
+        <v>3</v>
+      </c>
+      <c r="D746" t="n">
+        <v>81</v>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G746" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr"/>
+      <c r="B747" t="n">
+        <v>0</v>
+      </c>
+      <c r="C747" t="n">
+        <v>0</v>
+      </c>
+      <c r="D747" t="n">
+        <v>0</v>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G747" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>AI_MV_BreakDown</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>0</v>
+      </c>
+      <c r="C748" t="n">
+        <v>0</v>
+      </c>
+      <c r="D748" t="n">
+        <v>0</v>
+      </c>
+      <c r="E748" t="inlineStr"/>
+      <c r="F748" t="inlineStr"/>
+      <c r="G748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr"/>
+      <c r="B749" t="n">
+        <v>0</v>
+      </c>
+      <c r="C749" t="n">
+        <v>3</v>
+      </c>
+      <c r="D749" t="n">
+        <v>100</v>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G749" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr"/>
+      <c r="B750" t="n">
+        <v>0</v>
+      </c>
+      <c r="C750" t="n">
+        <v>3</v>
+      </c>
+      <c r="D750" t="n">
+        <v>81</v>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G750" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr"/>
+      <c r="B751" t="n">
+        <v>0</v>
+      </c>
+      <c r="C751" t="n">
+        <v>0</v>
+      </c>
+      <c r="D751" t="n">
+        <v>0</v>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G751" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>AI_MV_Irregular</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>0</v>
+      </c>
+      <c r="C752" t="n">
+        <v>0</v>
+      </c>
+      <c r="D752" t="n">
+        <v>0</v>
+      </c>
+      <c r="E752" t="inlineStr"/>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr"/>
+      <c r="B753" t="n">
+        <v>0</v>
+      </c>
+      <c r="C753" t="n">
+        <v>3</v>
+      </c>
+      <c r="D753" t="n">
+        <v>82</v>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G753" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr"/>
+      <c r="B754" t="n">
+        <v>0</v>
+      </c>
+      <c r="C754" t="n">
+        <v>3</v>
+      </c>
+      <c r="D754" t="n">
+        <v>88</v>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G754" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr"/>
+      <c r="B755" t="n">
+        <v>0</v>
+      </c>
+      <c r="C755" t="n">
+        <v>3</v>
+      </c>
+      <c r="D755" t="n">
+        <v>97</v>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G755" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr"/>
+      <c r="B756" t="n">
+        <v>0</v>
+      </c>
+      <c r="C756" t="n">
+        <v>3</v>
+      </c>
+      <c r="D756" t="n">
+        <v>81</v>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F756" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G756" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr"/>
+      <c r="B757" t="n">
+        <v>0</v>
+      </c>
+      <c r="C757" t="n">
+        <v>0</v>
+      </c>
+      <c r="D757" t="n">
+        <v>0</v>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G757" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>AI_MV_IrregularWithContinuedMove</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>0</v>
+      </c>
+      <c r="C758" t="n">
+        <v>0</v>
+      </c>
+      <c r="D758" t="n">
+        <v>0</v>
+      </c>
+      <c r="E758" t="inlineStr"/>
+      <c r="F758" t="inlineStr"/>
+      <c r="G758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr"/>
+      <c r="B759" t="n">
+        <v>0</v>
+      </c>
+      <c r="C759" t="n">
+        <v>3</v>
+      </c>
+      <c r="D759" t="n">
+        <v>82</v>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G759" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr"/>
+      <c r="B760" t="n">
+        <v>0</v>
+      </c>
+      <c r="C760" t="n">
+        <v>3</v>
+      </c>
+      <c r="D760" t="n">
+        <v>88</v>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G760" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr"/>
+      <c r="B761" t="n">
+        <v>0</v>
+      </c>
+      <c r="C761" t="n">
+        <v>3</v>
+      </c>
+      <c r="D761" t="n">
+        <v>81</v>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F761" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G761" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr"/>
+      <c r="B762" t="n">
+        <v>0</v>
+      </c>
+      <c r="C762" t="n">
+        <v>0</v>
+      </c>
+      <c r="D762" t="n">
+        <v>0</v>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F762" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G762" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>AI_MV_WaitToNearestEnemy</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C763" t="n">
+        <v>0</v>
+      </c>
+      <c r="D763" t="n">
+        <v>0</v>
+      </c>
+      <c r="E763" t="inlineStr"/>
+      <c r="F763" t="inlineStr"/>
+      <c r="G763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr"/>
+      <c r="B764" t="n">
+        <v>1</v>
+      </c>
+      <c r="C764" t="n">
+        <v>1</v>
+      </c>
+      <c r="D764" t="n">
+        <v>13</v>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F764" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G764" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr"/>
+      <c r="B765" t="n">
+        <v>2</v>
+      </c>
+      <c r="C765" t="n">
+        <v>3</v>
+      </c>
+      <c r="D765" t="n">
+        <v>82</v>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G765" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr"/>
+      <c r="B766" t="n">
+        <v>0</v>
+      </c>
+      <c r="C766" t="n">
+        <v>3</v>
+      </c>
+      <c r="D766" t="n">
+        <v>81</v>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G766" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr"/>
+      <c r="B767" t="n">
+        <v>0</v>
+      </c>
+      <c r="C767" t="n">
+        <v>0</v>
+      </c>
+      <c r="D767" t="n">
+        <v>0</v>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G767" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>AI_MV_Terrain</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>0</v>
+      </c>
+      <c r="C768" t="n">
+        <v>0</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0</v>
+      </c>
+      <c r="E768" t="inlineStr"/>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr"/>
+      <c r="B769" t="n">
+        <v>0</v>
+      </c>
+      <c r="C769" t="n">
+        <v>3</v>
+      </c>
+      <c r="D769" t="n">
+        <v>101</v>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>V_0</t>
+        </is>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G769" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr"/>
+      <c r="B770" t="n">
+        <v>0</v>
+      </c>
+      <c r="C770" t="n">
+        <v>3</v>
+      </c>
+      <c r="D770" t="n">
+        <v>81</v>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G770" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr"/>
+      <c r="B771" t="n">
+        <v>0</v>
+      </c>
+      <c r="C771" t="n">
+        <v>0</v>
+      </c>
+      <c r="D771" t="n">
+        <v>0</v>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G771" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>AI_MV_Rewarp</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>0</v>
+      </c>
+      <c r="C772" t="n">
+        <v>0</v>
+      </c>
+      <c r="D772" t="n">
+        <v>0</v>
+      </c>
+      <c r="E772" t="inlineStr"/>
+      <c r="F772" t="inlineStr"/>
+      <c r="G772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr"/>
+      <c r="B773" t="n">
+        <v>0</v>
+      </c>
+      <c r="C773" t="n">
+        <v>3</v>
+      </c>
+      <c r="D773" t="n">
+        <v>108</v>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G773" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr"/>
+      <c r="B774" t="n">
+        <v>0</v>
+      </c>
+      <c r="C774" t="n">
+        <v>3</v>
+      </c>
+      <c r="D774" t="n">
+        <v>82</v>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G774" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr"/>
+      <c r="B775" t="n">
+        <v>0</v>
+      </c>
+      <c r="C775" t="n">
+        <v>3</v>
+      </c>
+      <c r="D775" t="n">
+        <v>81</v>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G775" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr"/>
+      <c r="B776" t="n">
+        <v>0</v>
+      </c>
+      <c r="C776" t="n">
+        <v>0</v>
+      </c>
+      <c r="D776" t="n">
+        <v>0</v>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G776" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>AI_MV_Retreat</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>0</v>
+      </c>
+      <c r="C777" t="n">
+        <v>0</v>
+      </c>
+      <c r="D777" t="n">
+        <v>0</v>
+      </c>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr"/>
+      <c r="G777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr"/>
+      <c r="B778" t="n">
+        <v>0</v>
+      </c>
+      <c r="C778" t="n">
+        <v>3</v>
+      </c>
+      <c r="D778" t="n">
+        <v>99</v>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G778" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr"/>
+      <c r="B779" t="n">
+        <v>0</v>
+      </c>
+      <c r="C779" t="n">
+        <v>3</v>
+      </c>
+      <c r="D779" t="n">
+        <v>81</v>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G779" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr"/>
+      <c r="B780" t="n">
+        <v>0</v>
+      </c>
+      <c r="C780" t="n">
+        <v>0</v>
+      </c>
+      <c r="D780" t="n">
+        <v>0</v>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G780" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>AI_MV_Versus</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>0</v>
+      </c>
+      <c r="C781" t="n">
+        <v>0</v>
+      </c>
+      <c r="D781" t="n">
+        <v>0</v>
+      </c>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
+      <c r="G781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr"/>
+      <c r="B782" t="n">
+        <v>0</v>
+      </c>
+      <c r="C782" t="n">
+        <v>3</v>
+      </c>
+      <c r="D782" t="n">
+        <v>85</v>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>V_Max</t>
+        </is>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G782" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr"/>
+      <c r="B783" t="n">
+        <v>0</v>
+      </c>
+      <c r="C783" t="n">
+        <v>3</v>
+      </c>
+      <c r="D783" t="n">
+        <v>98</v>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G783" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr"/>
+      <c r="B784" t="n">
+        <v>0</v>
+      </c>
+      <c r="C784" t="n">
+        <v>3</v>
+      </c>
+      <c r="D784" t="n">
+        <v>97</v>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G784" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr"/>
+      <c r="B785" t="n">
+        <v>0</v>
+      </c>
+      <c r="C785" t="n">
+        <v>3</v>
+      </c>
+      <c r="D785" t="n">
+        <v>81</v>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G785" t="n">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr"/>
+      <c r="B786" t="n">
+        <v>0</v>
+      </c>
+      <c r="C786" t="n">
+        <v>0</v>
+      </c>
+      <c r="D786" t="n">
+        <v>0</v>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>V_Default</t>
+        </is>
+      </c>
+      <c r="G786" t="n">
         <v>-128</v>
       </c>
     </row>
